--- a/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2651,7 +2651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>150</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>155</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>160</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>165</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>170</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>200</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>211</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>237</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>240</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>257</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>300</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>305</v>
       </c>
@@ -7527,12 +7527,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO51">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
